--- a/document/詳細設計/詳細設計書.xlsx
+++ b/document/詳細設計/詳細設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\14_work\document\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734C5C4-B0E7-485E-9C9A-A5CE0779D9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7989EB-416A-438B-9AE7-19D921CE4E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'画面レイアウト ④'!$A$1:$AI$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'画面レイアウト③ '!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">更新仕様書!$A$1:$AG$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">項目説明!$A$1:$AG$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">項目説明!$A$1:$AG$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">補足説明!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">目次・概要!$A$1:$AG$42</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="175">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1323,6 +1323,51 @@
   <si>
     <t>nick_name</t>
   </si>
+  <si>
+    <t>公開/非公開</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>オーナー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>非公開</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Rev 1.01</t>
+  </si>
+  <si>
+    <t>項目説明に追記</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1707,7 +1752,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1823,6 +1868,29 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1876,9 +1944,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1888,17 +1953,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1972,47 +2040,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4259,13 +4286,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4835,7 +4862,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:I26"/>
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5231,20 +5258,20 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="84"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -5263,26 +5290,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="91" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="116"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -5301,22 +5328,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="119"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -5531,18 +5558,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="97" t="s">
+      <c r="L17" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="AA17" s="19"/>
@@ -5564,16 +5591,16 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="AA18" s="19"/>
@@ -5595,16 +5622,16 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
@@ -5836,12 +5863,12 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="99">
+      <c r="F26" s="122">
         <v>45683</v>
       </c>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="101"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
       <c r="J26" s="29" t="s">
         <v>61</v>
       </c>
@@ -5872,15 +5899,21 @@
     </row>
     <row r="27" spans="1:32" ht="13.05" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="29"/>
+      <c r="B27" s="29" t="s">
+        <v>173</v>
+      </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="29"/>
+      <c r="F27" s="102">
+        <v>45721</v>
+      </c>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="29" t="s">
+        <v>174</v>
+      </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -5900,7 +5933,9 @@
       <c r="AA27" s="30"/>
       <c r="AB27" s="31"/>
       <c r="AC27" s="33"/>
-      <c r="AD27" s="31"/>
+      <c r="AD27" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="AE27" s="19"/>
       <c r="AF27" s="24"/>
     </row>
@@ -6485,127 +6520,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="118"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="141"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="104"/>
+      <c r="AG2" s="127"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="102" t="s">
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="104"/>
+      <c r="AG3" s="127"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -7766,177 +7801,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="118"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="141"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="104"/>
+      <c r="AG2" s="127"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="102" t="s">
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="104"/>
+      <c r="AG3" s="127"/>
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="134" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="131" t="s">
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="125" t="s">
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="127"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="150"/>
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
@@ -7950,19 +7985,19 @@
         <v>32</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="122" t="s">
+      <c r="K5" s="160"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="124"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="147"/>
       <c r="V5" s="6" t="s">
         <v>37</v>
       </c>
@@ -7973,12 +8008,12 @@
       <c r="AA5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="130"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="153"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
@@ -9886,127 +9921,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="107"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="130"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="104"/>
+      <c r="AG2" s="127"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="102" t="s">
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="104"/>
+      <c r="AG3" s="127"/>
     </row>
     <row r="4" spans="1:177" s="21" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="13"/>
@@ -11455,125 +11490,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="107"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="130"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="104"/>
+      <c r="AG2" s="127"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="102" t="s">
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="104"/>
+      <c r="AG3" s="127"/>
     </row>
     <row r="4" spans="1:33" ht="12.75" customHeight="1">
       <c r="A4" s="39"/>
@@ -13023,127 +13058,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="109" t="s">
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="133"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="109" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="109" t="s">
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="111"/>
+      <c r="AG3" s="133"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -14697,127 +14732,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="109" t="s">
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="133"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="109" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="109" t="s">
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="109" t="s">
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="111"/>
+      <c r="AG3" s="133"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -16332,15 +16367,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -16371,133 +16406,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:179" ht="12.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
     </row>
     <row r="2" spans="1:179" ht="13.05" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="102" t="s">
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="104"/>
+      <c r="AI2" s="127"/>
     </row>
     <row r="3" spans="1:179" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="102" t="s">
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="104"/>
+      <c r="AI3" s="127"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -16682,49 +16717,45 @@
     </row>
     <row r="5" spans="1:179" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
       <c r="AI5" s="24"/>
     </row>
     <row r="6" spans="1:179" ht="12.75" customHeight="1">
       <c r="A6" s="22"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
@@ -16751,57 +16782,57 @@
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
       <c r="AG6" s="41"/>
-      <c r="AH6" s="147"/>
+      <c r="AH6" s="19"/>
       <c r="AI6" s="24"/>
     </row>
     <row r="7" spans="1:179" ht="12.75" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="147"/>
-      <c r="AF7" s="147"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
       <c r="AG7" s="24"/>
-      <c r="AH7" s="147"/>
+      <c r="AH7" s="19"/>
       <c r="AI7" s="24"/>
     </row>
     <row r="8" spans="1:179" ht="12.75" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="39"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -16816,139 +16847,138 @@
       <c r="V8" s="40"/>
       <c r="W8" s="40"/>
       <c r="X8" s="41"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="147"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="148"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="87"/>
     </row>
     <row r="9" spans="1:179" ht="12.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="24"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
       <c r="AG9" s="24"/>
-      <c r="AH9" s="147"/>
+      <c r="AH9" s="19"/>
       <c r="AI9" s="24"/>
     </row>
     <row r="10" spans="1:179" ht="12.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="O10" s="147" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="O10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="24"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="147"/>
-      <c r="AF10" s="147"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
       <c r="AG10" s="24"/>
-      <c r="AH10" s="147"/>
+      <c r="AH10" s="19"/>
       <c r="AI10" s="24"/>
     </row>
     <row r="11" spans="1:179" ht="12.75" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="147"/>
-      <c r="AF11" s="147"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
       <c r="AG11" s="24"/>
-      <c r="AH11" s="147"/>
+      <c r="AH11" s="19"/>
       <c r="AI11" s="24"/>
     </row>
     <row r="12" spans="1:179" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
@@ -16963,538 +16993,537 @@
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="147"/>
-      <c r="AF12" s="147"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
       <c r="AG12" s="24"/>
-      <c r="AH12" s="147"/>
+      <c r="AH12" s="19"/>
       <c r="AI12" s="24"/>
     </row>
     <row r="13" spans="1:179" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="54"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="149"/>
-      <c r="AB13" s="149"/>
-      <c r="AC13" s="149"/>
-      <c r="AD13" s="149"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="149"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
       <c r="AG13" s="55"/>
-      <c r="AH13" s="149"/>
+      <c r="AH13" s="50"/>
       <c r="AI13" s="24"/>
     </row>
     <row r="14" spans="1:179" ht="12.75" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="71"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
       <c r="AG14" s="75"/>
-      <c r="AH14" s="149"/>
+      <c r="AH14" s="50"/>
       <c r="AI14" s="24"/>
     </row>
     <row r="15" spans="1:179" ht="12.75" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="152"/>
-      <c r="AF15" s="152"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
       <c r="AG15" s="55"/>
-      <c r="AH15" s="153"/>
+      <c r="AH15" s="73"/>
       <c r="AI15" s="24"/>
     </row>
     <row r="16" spans="1:179" ht="12.75" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="150"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="149"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
-      <c r="AD16" s="149"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="149"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
       <c r="AG16" s="55"/>
-      <c r="AH16" s="153"/>
+      <c r="AH16" s="73"/>
       <c r="AI16" s="24"/>
     </row>
     <row r="17" spans="1:35" ht="12.75" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="54"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="149"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="150"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="150"/>
-      <c r="Z17" s="149"/>
-      <c r="AA17" s="149"/>
-      <c r="AB17" s="149"/>
-      <c r="AC17" s="149"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="149"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
       <c r="AG17" s="55"/>
-      <c r="AH17" s="153"/>
+      <c r="AH17" s="73"/>
       <c r="AI17" s="24"/>
     </row>
     <row r="18" spans="1:35" ht="12.75" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="54"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="149"/>
+      <c r="M18" s="50"/>
       <c r="N18" s="51"/>
       <c r="O18" s="77"/>
       <c r="P18" s="77"/>
       <c r="Q18" s="77"/>
       <c r="R18" s="77"/>
-      <c r="S18" s="164"/>
+      <c r="S18" s="89"/>
       <c r="T18" s="77"/>
       <c r="U18" s="77"/>
-      <c r="V18" s="164"/>
+      <c r="V18" s="89"/>
       <c r="W18" s="78"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="150"/>
-      <c r="Z18" s="149"/>
-      <c r="AA18" s="149"/>
-      <c r="AB18" s="149"/>
-      <c r="AC18" s="149"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="149"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
       <c r="AG18" s="55"/>
-      <c r="AH18" s="153"/>
+      <c r="AH18" s="73"/>
       <c r="AI18" s="24"/>
     </row>
     <row r="19" spans="1:35" ht="12.75" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="54"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
       <c r="AG19" s="55"/>
-      <c r="AH19" s="153"/>
+      <c r="AH19" s="73"/>
       <c r="AI19" s="24"/>
     </row>
     <row r="20" spans="1:35" ht="12.75" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="54"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="149"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="51"/>
       <c r="O20" s="77"/>
       <c r="P20" s="77"/>
       <c r="Q20" s="77"/>
       <c r="R20" s="77"/>
-      <c r="S20" s="164"/>
+      <c r="S20" s="89"/>
       <c r="T20" s="77"/>
       <c r="U20" s="77"/>
-      <c r="V20" s="164"/>
+      <c r="V20" s="89"/>
       <c r="W20" s="78"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="150"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="149"/>
-      <c r="AD20" s="149"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="149"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
       <c r="AG20" s="55"/>
-      <c r="AH20" s="153"/>
+      <c r="AH20" s="73"/>
       <c r="AI20" s="24"/>
     </row>
     <row r="21" spans="1:35" ht="12.75" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="150"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="149"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="149"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
       <c r="AG21" s="55"/>
-      <c r="AH21" s="153"/>
+      <c r="AH21" s="73"/>
       <c r="AI21" s="24"/>
     </row>
     <row r="22" spans="1:35" ht="12.75" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="54"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="150"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="149"/>
-      <c r="AC22" s="149"/>
-      <c r="AD22" s="149"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="149"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
       <c r="AG22" s="55"/>
-      <c r="AH22" s="153"/>
+      <c r="AH22" s="73"/>
       <c r="AI22" s="24"/>
     </row>
     <row r="23" spans="1:35" ht="12.75" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="149"/>
-      <c r="AB23" s="149"/>
-      <c r="AC23" s="149"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="149"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
       <c r="AG23" s="55"/>
-      <c r="AH23" s="153"/>
+      <c r="AH23" s="73"/>
       <c r="AI23" s="24"/>
     </row>
     <row r="24" spans="1:35" ht="12.75" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="54"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="150"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
-      <c r="AC24" s="149"/>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="149"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="50"/>
       <c r="AG24" s="55"/>
-      <c r="AH24" s="153"/>
+      <c r="AH24" s="73"/>
       <c r="AI24" s="24"/>
     </row>
     <row r="25" spans="1:35" ht="12.75" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="149"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="150"/>
-      <c r="Z25" s="149"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="149"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="149"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
       <c r="AG25" s="55"/>
-      <c r="AH25" s="153"/>
+      <c r="AH25" s="73"/>
       <c r="AI25" s="24"/>
     </row>
     <row r="26" spans="1:35" ht="12.75" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="149"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="150"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="149"/>
-      <c r="AB26" s="149"/>
-      <c r="AC26" s="149"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="149"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
       <c r="AG26" s="55"/>
       <c r="AH26" s="73"/>
       <c r="AI26" s="24"/>
@@ -17502,36 +17531,36 @@
     <row r="27" spans="1:35" ht="12.75" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="149"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="149"/>
-      <c r="AA27" s="149"/>
-      <c r="AB27" s="149"/>
-      <c r="AC27" s="149"/>
-      <c r="AD27" s="149"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="149"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
       <c r="AG27" s="55"/>
       <c r="AH27" s="73"/>
       <c r="AI27" s="24"/>
@@ -17539,36 +17568,36 @@
     <row r="28" spans="1:35" ht="12.75" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
-      <c r="Y28" s="150"/>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="149"/>
-      <c r="AB28" s="149"/>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="149"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
       <c r="AG28" s="55"/>
       <c r="AH28" s="73"/>
       <c r="AI28" s="24"/>
@@ -17576,36 +17605,36 @@
     <row r="29" spans="1:35" ht="12.75" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="150"/>
-      <c r="Z29" s="149"/>
-      <c r="AA29" s="149"/>
-      <c r="AB29" s="149"/>
-      <c r="AC29" s="149"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="149"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
       <c r="AG29" s="55"/>
       <c r="AH29" s="73"/>
       <c r="AI29" s="24"/>
@@ -18188,133 +18217,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:179" ht="12.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
     </row>
     <row r="2" spans="1:179" ht="13.05" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="102" t="s">
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="104"/>
+      <c r="AI2" s="127"/>
     </row>
     <row r="3" spans="1:179" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="102" t="s">
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="104"/>
+      <c r="AI3" s="127"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -18618,11 +18647,11 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="147" t="s">
+      <c r="I8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="29"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
@@ -18632,9 +18661,9 @@
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -18657,21 +18686,21 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
@@ -18694,21 +18723,21 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
@@ -18731,11 +18760,11 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="29"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -18745,9 +18774,9 @@
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="24"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -18770,21 +18799,21 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
@@ -18807,11 +18836,11 @@
       <c r="F13" s="52"/>
       <c r="G13" s="50"/>
       <c r="H13" s="54"/>
-      <c r="I13" s="149" t="s">
+      <c r="I13" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="51"/>
       <c r="M13" s="77"/>
       <c r="N13" s="77"/>
@@ -18821,9 +18850,9 @@
       <c r="R13" s="77"/>
       <c r="S13" s="77"/>
       <c r="T13" s="78"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="50"/>
       <c r="Z13" s="50"/>
@@ -18839,28 +18868,28 @@
     </row>
     <row r="14" spans="1:179" ht="12.75" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="149"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="50"/>
       <c r="X14" s="55"/>
       <c r="Y14" s="50"/>
       <c r="Z14" s="71"/>
@@ -18876,18 +18905,18 @@
     </row>
     <row r="15" spans="1:179" ht="12.75" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="51"/>
       <c r="M15" s="77"/>
       <c r="N15" s="77"/>
@@ -18895,18 +18924,18 @@
       <c r="P15" s="77"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="77"/>
-      <c r="S15" s="164"/>
+      <c r="S15" s="89"/>
       <c r="T15" s="78"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="149"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="50"/>
       <c r="X15" s="55"/>
       <c r="Y15" s="52"/>
       <c r="Z15" s="50"/>
       <c r="AA15" s="50"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
       <c r="AE15" s="74"/>
       <c r="AF15" s="74"/>
       <c r="AG15" s="50"/>
@@ -18922,21 +18951,21 @@
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="56"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="150"/>
-      <c r="T16" s="149"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="149"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="50"/>
       <c r="X16" s="55"/>
       <c r="Y16" s="52"/>
       <c r="Z16" s="50"/>
@@ -18959,21 +18988,21 @@
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="149"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="150"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="149"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="50"/>
       <c r="X17" s="55"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="50"/>
@@ -18996,11 +19025,11 @@
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="149" t="s">
+      <c r="I18" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="51"/>
       <c r="M18" s="77"/>
       <c r="N18" s="77"/>
@@ -19008,11 +19037,11 @@
       <c r="P18" s="77"/>
       <c r="Q18" s="77"/>
       <c r="R18" s="77"/>
-      <c r="S18" s="164"/>
+      <c r="S18" s="89"/>
       <c r="T18" s="78"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="149"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="50"/>
       <c r="X18" s="55"/>
       <c r="Y18" s="52"/>
       <c r="Z18" s="50"/>
@@ -19035,21 +19064,21 @@
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="56"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="149"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="50"/>
       <c r="X19" s="55"/>
       <c r="Y19" s="52"/>
       <c r="Z19" s="50"/>
@@ -19072,23 +19101,23 @@
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="149" t="s">
+      <c r="I20" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="149"/>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="149"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="150"/>
-      <c r="W20" s="149"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="55"/>
       <c r="Y20" s="52"/>
       <c r="Z20" s="50"/>
@@ -19111,27 +19140,27 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="56"/>
-      <c r="I21" s="149" t="s">
+      <c r="I21" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="149" t="s">
+      <c r="J21" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="149" t="s">
+      <c r="K21" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="149"/>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="149"/>
-      <c r="S21" s="150"/>
-      <c r="T21" s="149"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="149"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="50"/>
       <c r="X21" s="55"/>
       <c r="Y21" s="52"/>
       <c r="Z21" s="50"/>
@@ -19154,21 +19183,21 @@
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="56"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
-      <c r="L22" s="149"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="149"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="50"/>
       <c r="X22" s="55"/>
       <c r="Y22" s="52"/>
       <c r="Z22" s="50"/>
@@ -19191,11 +19220,11 @@
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="149" t="s">
+      <c r="I23" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="51"/>
       <c r="M23" s="77"/>
       <c r="N23" s="77"/>
@@ -19203,11 +19232,11 @@
       <c r="P23" s="77"/>
       <c r="Q23" s="77"/>
       <c r="R23" s="77"/>
-      <c r="S23" s="164"/>
+      <c r="S23" s="89"/>
       <c r="T23" s="78"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="149"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="50"/>
       <c r="X23" s="55"/>
       <c r="Y23" s="52"/>
       <c r="Z23" s="50"/>
@@ -19230,21 +19259,21 @@
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="149"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="50"/>
       <c r="X24" s="55"/>
       <c r="Y24" s="52"/>
       <c r="Z24" s="50"/>
@@ -19267,25 +19296,25 @@
       <c r="F25" s="50"/>
       <c r="G25" s="52"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="149" t="s">
+      <c r="I25" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
       <c r="M25" s="51"/>
       <c r="N25" s="78"/>
-      <c r="O25" s="149" t="s">
+      <c r="O25" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="149"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="50"/>
       <c r="X25" s="55"/>
       <c r="Y25" s="52"/>
       <c r="Z25" s="50"/>
@@ -19308,21 +19337,21 @@
       <c r="F26" s="50"/>
       <c r="G26" s="52"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="149"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="149"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="50"/>
       <c r="X26" s="55"/>
       <c r="Y26" s="52"/>
       <c r="Z26" s="50"/>
@@ -19345,23 +19374,23 @@
       <c r="F27" s="50"/>
       <c r="G27" s="52"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="149" t="s">
+      <c r="I27" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="51"/>
       <c r="N27" s="77"/>
       <c r="O27" s="77"/>
       <c r="P27" s="77"/>
       <c r="Q27" s="77"/>
       <c r="R27" s="77"/>
-      <c r="S27" s="164"/>
+      <c r="S27" s="89"/>
       <c r="T27" s="78"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="149"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="50"/>
       <c r="X27" s="55"/>
       <c r="Y27" s="52"/>
       <c r="Z27" s="50"/>
@@ -19384,21 +19413,21 @@
       <c r="F28" s="50"/>
       <c r="G28" s="52"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="149"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="50"/>
       <c r="X28" s="55"/>
       <c r="Y28" s="52"/>
       <c r="Z28" s="50"/>
@@ -19421,23 +19450,23 @@
       <c r="F29" s="50"/>
       <c r="G29" s="52"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="149" t="s">
+      <c r="I29" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="51"/>
       <c r="N29" s="77"/>
       <c r="O29" s="77"/>
       <c r="P29" s="77"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="77"/>
-      <c r="S29" s="164"/>
+      <c r="S29" s="89"/>
       <c r="T29" s="78"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="149"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="50"/>
       <c r="X29" s="55"/>
       <c r="Y29" s="52"/>
       <c r="Z29" s="50"/>
@@ -19460,21 +19489,21 @@
       <c r="F30" s="50"/>
       <c r="G30" s="52"/>
       <c r="H30" s="56"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="150"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="149"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="50"/>
       <c r="X30" s="55"/>
       <c r="Y30" s="52"/>
       <c r="Z30" s="50"/>
@@ -19497,21 +19526,21 @@
       <c r="F31" s="50"/>
       <c r="G31" s="52"/>
       <c r="H31" s="56"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="149"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="150"/>
-      <c r="T31" s="149"/>
-      <c r="U31" s="149"/>
-      <c r="V31" s="150"/>
-      <c r="W31" s="149"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="50"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="52"/>
       <c r="Z31" s="50"/>
@@ -19533,7 +19562,7 @@
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="52"/>
-      <c r="H32" s="146"/>
+      <c r="H32" s="85"/>
       <c r="I32" s="59"/>
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
@@ -19570,23 +19599,23 @@
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="52"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="149"/>
-      <c r="P33" s="149"/>
-      <c r="Q33" s="149"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="149"/>
-      <c r="V33" s="149"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
       <c r="Y33" s="52"/>
       <c r="Z33" s="50"/>
       <c r="AA33" s="50"/>
@@ -19607,23 +19636,13 @@
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="52"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="148"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="147"/>
-      <c r="X34" s="149"/>
+      <c r="H34" s="50"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="50"/>
       <c r="Y34" s="52"/>
       <c r="Z34" s="50"/>
       <c r="AA34" s="50"/>
@@ -19644,23 +19663,22 @@
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="52"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="147"/>
-      <c r="X35" s="147"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
       <c r="Y35" s="52"/>
       <c r="Z35" s="50"/>
       <c r="AA35" s="50"/>
@@ -19681,26 +19699,11 @@
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="52"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
-      <c r="Q36" s="148"/>
-      <c r="R36" s="148"/>
-      <c r="S36" s="148"/>
-      <c r="T36" s="148"/>
-      <c r="U36" s="148"/>
-      <c r="V36" s="148"/>
-      <c r="W36" s="148"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="150"/>
-      <c r="Z36" s="149"/>
-      <c r="AA36" s="149"/>
+      <c r="H36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
       <c r="AB36" s="50"/>
       <c r="AC36" s="50"/>
       <c r="AD36" s="50"/>
@@ -19718,26 +19721,9 @@
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="52"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="148"/>
-      <c r="Q37" s="148"/>
-      <c r="R37" s="148"/>
-      <c r="S37" s="148"/>
-      <c r="T37" s="148"/>
-      <c r="U37" s="148"/>
-      <c r="V37" s="148"/>
-      <c r="W37" s="148"/>
-      <c r="X37" s="148"/>
-      <c r="Y37" s="150"/>
-      <c r="Z37" s="149"/>
-      <c r="AA37" s="149"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
       <c r="AB37" s="50"/>
       <c r="AC37" s="50"/>
       <c r="AD37" s="50"/>
@@ -19755,9 +19741,9 @@
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="52"/>
-      <c r="Y38" s="150"/>
-      <c r="Z38" s="149"/>
-      <c r="AA38" s="149"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
       <c r="AB38" s="50"/>
       <c r="AC38" s="50"/>
       <c r="AD38" s="50"/>
@@ -19775,9 +19761,9 @@
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="52"/>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
       <c r="AB39" s="50"/>
       <c r="AC39" s="50"/>
       <c r="AD39" s="50"/>
@@ -19795,9 +19781,9 @@
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="52"/>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="149"/>
-      <c r="AA40" s="149"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
       <c r="AB40" s="50"/>
       <c r="AC40" s="50"/>
       <c r="AD40" s="50"/>
@@ -19883,6 +19869,10 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -19892,10 +19882,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19926,133 +19912,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:179" ht="12.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
     </row>
     <row r="2" spans="1:179" ht="13.05" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="102" t="s">
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="104"/>
+      <c r="AI2" s="127"/>
     </row>
     <row r="3" spans="1:179" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="102" t="s">
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="104"/>
+      <c r="AI3" s="127"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -20278,70 +20264,70 @@
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="69"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="141"/>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="143"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="82"/>
       <c r="AH6" s="53"/>
       <c r="AI6" s="24"/>
     </row>
     <row r="7" spans="1:179" ht="12.75" customHeight="1">
       <c r="A7" s="22"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="50"/>
       <c r="F7" s="54"/>
       <c r="G7" s="50"/>
       <c r="H7" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="140"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145" t="s">
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="AD7" s="145"/>
+      <c r="AD7" s="84"/>
       <c r="AE7" s="72"/>
       <c r="AF7" s="74"/>
       <c r="AG7" s="55"/>
@@ -20435,7 +20421,7 @@
       <c r="E10" s="50"/>
       <c r="F10" s="54"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="146"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="59"/>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -20763,7 +20749,7 @@
       <c r="E19" s="50"/>
       <c r="F19" s="54"/>
       <c r="G19" s="52"/>
-      <c r="H19" s="146"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
@@ -20838,30 +20824,30 @@
       <c r="H21" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="145"/>
-      <c r="T21" s="140"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="140"/>
-      <c r="W21" s="140"/>
-      <c r="X21" s="140"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="140"/>
-      <c r="AA21" s="140"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145" t="s">
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="AD21" s="145"/>
+      <c r="AD21" s="84"/>
       <c r="AE21" s="72"/>
       <c r="AF21" s="50"/>
       <c r="AG21" s="55"/>
@@ -20953,7 +20939,7 @@
       <c r="E24" s="50"/>
       <c r="F24" s="54"/>
       <c r="G24" s="52"/>
-      <c r="H24" s="146"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="59"/>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
@@ -21281,7 +21267,7 @@
       <c r="E33" s="50"/>
       <c r="F33" s="58"/>
       <c r="G33" s="76"/>
-      <c r="H33" s="146"/>
+      <c r="H33" s="85"/>
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
@@ -21408,15 +21394,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21447,133 +21433,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:179" ht="12.75" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
     </row>
     <row r="2" spans="1:179" ht="13.05" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="102" t="s">
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="104"/>
+      <c r="AI2" s="127"/>
     </row>
     <row r="3" spans="1:179" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="102" t="s">
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="104"/>
+      <c r="AI3" s="127"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -21839,23 +21825,23 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="167"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="92"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
@@ -21876,12 +21862,12 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="147" t="s">
+      <c r="H8" s="93"/>
+      <c r="I8" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="29"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
@@ -21891,10 +21877,10 @@
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="169"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="94"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
@@ -21915,23 +21901,23 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="169"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="94"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
@@ -21952,12 +21938,12 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="147" t="s">
+      <c r="H10" s="93"/>
+      <c r="I10" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="29"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
@@ -21967,10 +21953,10 @@
       <c r="R10" s="30"/>
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="169"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="94"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
@@ -21991,23 +21977,23 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="169"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="94"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
@@ -22028,12 +22014,12 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="149" t="s">
+      <c r="H12" s="95"/>
+      <c r="I12" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="77"/>
       <c r="N12" s="77"/>
@@ -22043,10 +22029,10 @@
       <c r="R12" s="77"/>
       <c r="S12" s="77"/>
       <c r="T12" s="78"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="149"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="171"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="96"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
@@ -22067,23 +22053,23 @@
       <c r="E13" s="50"/>
       <c r="F13" s="52"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="171"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="96"/>
       <c r="Y13" s="50"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -22098,18 +22084,18 @@
     </row>
     <row r="14" spans="1:179" ht="12.75" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="149" t="s">
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="51"/>
       <c r="M14" s="77"/>
       <c r="N14" s="77"/>
@@ -22117,12 +22103,12 @@
       <c r="P14" s="77"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="77"/>
-      <c r="S14" s="164"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="78"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="150"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="171"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="96"/>
       <c r="Y14" s="50"/>
       <c r="Z14" s="71"/>
       <c r="AA14" s="71"/>
@@ -22137,35 +22123,35 @@
     </row>
     <row r="15" spans="1:179" ht="12.75" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="150"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="171"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="96"/>
       <c r="Y15" s="52"/>
       <c r="Z15" s="50"/>
       <c r="AA15" s="50"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
       <c r="AE15" s="74"/>
       <c r="AF15" s="74"/>
       <c r="AG15" s="50"/>
@@ -22180,12 +22166,12 @@
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="149" t="s">
+      <c r="H16" s="97"/>
+      <c r="I16" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="77"/>
       <c r="N16" s="77"/>
@@ -22193,12 +22179,12 @@
       <c r="P16" s="77"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="77"/>
-      <c r="S16" s="164"/>
+      <c r="S16" s="89"/>
       <c r="T16" s="78"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="171"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="96"/>
       <c r="Y16" s="52"/>
       <c r="Z16" s="50"/>
       <c r="AA16" s="50"/>
@@ -22219,23 +22205,23 @@
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="149"/>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="149"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="149"/>
-      <c r="S17" s="150"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="171"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="96"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="50"/>
       <c r="AA17" s="50"/>
@@ -22256,25 +22242,25 @@
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="149" t="s">
+      <c r="H18" s="97"/>
+      <c r="I18" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="150"/>
-      <c r="T18" s="149"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="171"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="96"/>
       <c r="Y18" s="52"/>
       <c r="Z18" s="50"/>
       <c r="AA18" s="50"/>
@@ -22295,27 +22281,27 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="149" t="s">
+      <c r="H19" s="97"/>
+      <c r="I19" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149" t="s">
+      <c r="J19" s="50"/>
+      <c r="K19" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="171"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="96"/>
       <c r="Y19" s="52"/>
       <c r="Z19" s="50"/>
       <c r="AA19" s="50"/>
@@ -22336,23 +22322,23 @@
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-      <c r="L20" s="149"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="149"/>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="149"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="149"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="150"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="171"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="96"/>
       <c r="Y20" s="52"/>
       <c r="Z20" s="50"/>
       <c r="AA20" s="50"/>
@@ -22373,25 +22359,25 @@
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="149" t="s">
+      <c r="H21" s="97"/>
+      <c r="I21" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="69"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="145"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="84"/>
       <c r="T21" s="70"/>
-      <c r="U21" s="149"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="149"/>
-      <c r="X21" s="171"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="96"/>
       <c r="Y21" s="52"/>
       <c r="Z21" s="50"/>
       <c r="AA21" s="50"/>
@@ -22412,23 +22398,23 @@
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="149"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="52"/>
       <c r="T22" s="55"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="150"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="171"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="96"/>
       <c r="Y22" s="52"/>
       <c r="Z22" s="50"/>
       <c r="AA22" s="50"/>
@@ -22449,23 +22435,23 @@
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="54"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="150"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="52"/>
       <c r="T23" s="55"/>
-      <c r="U23" s="149"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="171"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="96"/>
       <c r="Y23" s="52"/>
       <c r="Z23" s="50"/>
       <c r="AA23" s="50"/>
@@ -22486,10 +22472,10 @@
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="58"/>
       <c r="M24" s="59"/>
       <c r="N24" s="59"/>
@@ -22499,10 +22485,10 @@
       <c r="R24" s="59"/>
       <c r="S24" s="76"/>
       <c r="T24" s="60"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="171"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="96"/>
       <c r="Y24" s="52"/>
       <c r="Z24" s="50"/>
       <c r="AA24" s="50"/>
@@ -22523,23 +22509,23 @@
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="52"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="175"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="176"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="101"/>
       <c r="Y25" s="52"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
@@ -22560,23 +22546,23 @@
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="52"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="149"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
       <c r="Y26" s="52"/>
       <c r="Z26" s="50"/>
       <c r="AA26" s="50"/>
@@ -22597,23 +22583,23 @@
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="52"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="149"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
       <c r="Y27" s="52"/>
       <c r="Z27" s="50"/>
       <c r="AA27" s="50"/>
@@ -22634,23 +22620,23 @@
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="52"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="149"/>
-      <c r="S28" s="149"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="149"/>
-      <c r="V28" s="149"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="149"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
       <c r="Y28" s="52"/>
       <c r="Z28" s="50"/>
       <c r="AA28" s="50"/>
@@ -22671,23 +22657,23 @@
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="52"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
-      <c r="V29" s="149"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
       <c r="Y29" s="52"/>
       <c r="Z29" s="50"/>
       <c r="AA29" s="50"/>
@@ -22708,23 +22694,13 @@
       <c r="E30" s="50"/>
       <c r="F30" s="50"/>
       <c r="G30" s="52"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="149"/>
+      <c r="H30" s="50"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="50"/>
       <c r="Y30" s="52"/>
       <c r="Z30" s="50"/>
       <c r="AA30" s="50"/>
@@ -22745,23 +22721,22 @@
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="G31" s="52"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
       <c r="Y31" s="52"/>
       <c r="Z31" s="50"/>
       <c r="AA31" s="50"/>
@@ -22782,23 +22757,8 @@
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="52"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="147"/>
+      <c r="H32" s="19"/>
+      <c r="X32" s="19"/>
       <c r="Y32" s="52"/>
       <c r="Z32" s="50"/>
       <c r="AA32" s="50"/>
@@ -22819,23 +22779,6 @@
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="52"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
       <c r="Y33" s="52"/>
       <c r="Z33" s="50"/>
       <c r="AA33" s="50"/>
@@ -22896,9 +22839,9 @@
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="52"/>
-      <c r="Y36" s="150"/>
-      <c r="Z36" s="149"/>
-      <c r="AA36" s="149"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
       <c r="AB36" s="50"/>
       <c r="AC36" s="50"/>
       <c r="AD36" s="50"/>
@@ -22916,9 +22859,9 @@
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="52"/>
-      <c r="Y37" s="150"/>
-      <c r="Z37" s="149"/>
-      <c r="AA37" s="149"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
       <c r="AB37" s="50"/>
       <c r="AC37" s="50"/>
       <c r="AD37" s="50"/>
@@ -22936,9 +22879,9 @@
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="52"/>
-      <c r="Y38" s="150"/>
-      <c r="Z38" s="149"/>
-      <c r="AA38" s="149"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
       <c r="AB38" s="50"/>
       <c r="AC38" s="50"/>
       <c r="AD38" s="50"/>
@@ -22956,9 +22899,9 @@
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="52"/>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
       <c r="AB39" s="50"/>
       <c r="AC39" s="50"/>
       <c r="AD39" s="50"/>
@@ -22976,9 +22919,9 @@
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="52"/>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="149"/>
-      <c r="AA40" s="149"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
       <c r="AB40" s="50"/>
       <c r="AC40" s="50"/>
       <c r="AD40" s="50"/>
@@ -23091,10 +23034,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:FU39"/>
+  <dimension ref="A1:FU41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -23107,127 +23050,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="118"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="141"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="102" t="s">
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="102" t="s">
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="104"/>
+      <c r="AG2" s="127"/>
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="102" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="102" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="102" t="s">
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="104"/>
+      <c r="AG3" s="127"/>
     </row>
     <row r="4" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="6"/>
@@ -23430,20 +23373,20 @@
     </row>
     <row r="5" spans="1:177" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="65" t="s">
-        <v>23</v>
+      <c r="F5" s="65">
+        <v>0</v>
       </c>
       <c r="G5" s="65">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="65"/>
@@ -23453,15 +23396,17 @@
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="29" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="30"/>
+      <c r="U5" s="30" t="s">
+        <v>172</v>
+      </c>
       <c r="V5" s="30"/>
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
@@ -23477,20 +23422,20 @@
     </row>
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="65" t="s">
-        <v>23</v>
+      <c r="F6" s="65">
+        <v>0</v>
       </c>
       <c r="G6" s="65">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
@@ -23502,7 +23447,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="67"/>
       <c r="P6" s="29" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -23524,7 +23469,7 @@
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -23547,19 +23492,19 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
-      <c r="O7" s="67"/>
+      <c r="O7" s="31"/>
       <c r="P7" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="30"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
       <c r="X7" s="30"/>
-      <c r="Y7" s="32"/>
+      <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="31"/>
       <c r="AB7" s="30"/>
@@ -23571,7 +23516,7 @@
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -23596,17 +23541,17 @@
       <c r="N8" s="30"/>
       <c r="O8" s="67"/>
       <c r="P8" s="29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="30"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="30"/>
-      <c r="Y8" s="32"/>
+      <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
       <c r="AA8" s="31"/>
       <c r="AB8" s="30"/>
@@ -23618,7 +23563,7 @@
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -23628,10 +23573,10 @@
         <v>23</v>
       </c>
       <c r="G9" s="65">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="65"/>
@@ -23643,17 +23588,17 @@
       <c r="N9" s="30"/>
       <c r="O9" s="67"/>
       <c r="P9" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="32"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="67"/>
       <c r="U9" s="32"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
       <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
+      <c r="Y9" s="32"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="31"/>
       <c r="AB9" s="30"/>
@@ -23665,7 +23610,7 @@
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -23675,9 +23620,11 @@
         <v>23</v>
       </c>
       <c r="G10" s="65">
-        <v>1</v>
-      </c>
-      <c r="H10" s="65"/>
+        <v>30</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>19</v>
+      </c>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
       <c r="K10" s="29" t="s">
@@ -23688,19 +23635,17 @@
       <c r="N10" s="30"/>
       <c r="O10" s="67"/>
       <c r="P10" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
       <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
+      <c r="Y10" s="32"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="31"/>
       <c r="AB10" s="30"/>
@@ -23712,7 +23657,7 @@
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -23722,10 +23667,10 @@
         <v>23</v>
       </c>
       <c r="G11" s="65">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
@@ -23737,13 +23682,13 @@
       <c r="N11" s="30"/>
       <c r="O11" s="67"/>
       <c r="P11" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
-      <c r="U11" s="30"/>
+      <c r="U11" s="32"/>
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
@@ -23759,7 +23704,7 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -23774,19 +23719,23 @@
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="67"/>
       <c r="P12" s="29" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="30"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
@@ -23802,7 +23751,7 @@
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -23811,17 +23760,23 @@
       <c r="F13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="G13" s="65">
+        <v>200</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="29" t="s">
+        <v>147</v>
+      </c>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="67"/>
       <c r="P13" s="29" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
@@ -23843,7 +23798,7 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -23852,7 +23807,9 @@
       <c r="F14" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="65">
+        <v>1</v>
+      </c>
       <c r="H14" s="65"/>
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
@@ -23862,12 +23819,12 @@
       <c r="N14" s="30"/>
       <c r="O14" s="67"/>
       <c r="P14" s="29" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="30"/>
-      <c r="T14" s="67"/>
+      <c r="T14" s="31"/>
       <c r="U14" s="30"/>
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
@@ -23883,12 +23840,16 @@
       <c r="AG14" s="31"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="65"/>
+      <c r="F15" s="65" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="65"/>
       <c r="H15" s="65"/>
       <c r="I15" s="65"/>
@@ -23898,11 +23859,13 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="67"/>
-      <c r="P15" s="29"/>
+      <c r="P15" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="67"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
       <c r="U15" s="30"/>
       <c r="V15" s="30"/>
       <c r="W15" s="30"/>
@@ -23918,12 +23881,16 @@
       <c r="AG15" s="31"/>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="65" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
       <c r="I16" s="65"/>
@@ -23933,11 +23900,13 @@
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="67"/>
-      <c r="P16" s="29"/>
+      <c r="P16" s="29" t="s">
+        <v>81</v>
+      </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="30"/>
-      <c r="T16" s="31"/>
+      <c r="T16" s="67"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
@@ -23971,8 +23940,8 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="67"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
@@ -24005,19 +23974,19 @@
       <c r="O18" s="67"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
       <c r="X18" s="30"/>
-      <c r="Y18" s="32"/>
+      <c r="Y18" s="30"/>
       <c r="Z18" s="30"/>
       <c r="AA18" s="31"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
       <c r="AE18" s="30"/>
       <c r="AF18" s="30"/>
       <c r="AG18" s="31"/>
@@ -24040,19 +24009,19 @@
       <c r="O19" s="67"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
       <c r="X19" s="30"/>
-      <c r="Y19" s="32"/>
+      <c r="Y19" s="30"/>
       <c r="Z19" s="30"/>
       <c r="AA19" s="31"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
       <c r="AE19" s="30"/>
       <c r="AF19" s="30"/>
       <c r="AG19" s="31"/>
@@ -24085,9 +24054,9 @@
       <c r="Y20" s="32"/>
       <c r="Z20" s="30"/>
       <c r="AA20" s="31"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
       <c r="AG20" s="31"/>
@@ -24120,9 +24089,9 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="30"/>
       <c r="AA21" s="31"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
       <c r="AE21" s="30"/>
       <c r="AF21" s="30"/>
       <c r="AG21" s="31"/>
@@ -24148,7 +24117,7 @@
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="67"/>
-      <c r="U22" s="30"/>
+      <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
       <c r="X22" s="30"/>
@@ -24218,7 +24187,7 @@
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="67"/>
-      <c r="U24" s="32"/>
+      <c r="U24" s="30"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
       <c r="X24" s="30"/>
@@ -24282,17 +24251,17 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
+      <c r="O26" s="67"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
       <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
+      <c r="Y26" s="32"/>
       <c r="Z26" s="30"/>
       <c r="AA26" s="31"/>
       <c r="AB26" s="30"/>
@@ -24317,17 +24286,17 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
+      <c r="O27" s="67"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
       <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
+      <c r="Y27" s="32"/>
       <c r="Z27" s="30"/>
       <c r="AA27" s="31"/>
       <c r="AB27" s="30"/>
@@ -24757,6 +24726,76 @@
       <c r="AF39" s="30"/>
       <c r="AG39" s="31"/>
     </row>
+    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="31"/>
+    </row>
+    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A3:F3"/>
